--- a/tut05/output/0501CS05.xlsx
+++ b/tut05/output/0501CS05.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.551020408163265</v>
+        <v>6.55</v>
       </c>
       <c r="C6" t="n">
-        <v>6.977272727272728</v>
+        <v>6.98</v>
       </c>
       <c r="D6" t="n">
-        <v>6.604651162790698</v>
+        <v>6.6</v>
       </c>
       <c r="E6" t="n">
-        <v>6.872340425531915</v>
+        <v>6.87</v>
       </c>
       <c r="F6" t="n">
         <v>7.5</v>
@@ -568,7 +568,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.902439024390244</v>
+        <v>8.9</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.551020408163265</v>
+        <v>6.55</v>
       </c>
       <c r="C8" t="n">
-        <v>6.752688172043011</v>
+        <v>6.75</v>
       </c>
       <c r="D8" t="n">
-        <v>6.705882352941177</v>
+        <v>6.71</v>
       </c>
       <c r="E8" t="n">
-        <v>6.748633879781421</v>
+        <v>6.75</v>
       </c>
       <c r="F8" t="n">
-        <v>6.888888888888889</v>
+        <v>6.89</v>
       </c>
       <c r="G8" t="n">
-        <v>7.086792452830188</v>
+        <v>7.09</v>
       </c>
       <c r="H8" t="n">
-        <v>7.330065359477124</v>
+        <v>7.33</v>
       </c>
       <c r="I8" t="n">
-        <v>7.517341040462428</v>
+        <v>7.52</v>
       </c>
     </row>
   </sheetData>
